--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf15-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf15-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,12 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
     <t>Fgf15</t>
   </si>
   <si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +531,52 @@
         <v>24</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.05008433333333333</v>
+      </c>
+      <c r="H2">
+        <v>0.150253</v>
+      </c>
+      <c r="I2">
+        <v>0.3054767171413236</v>
+      </c>
+      <c r="J2">
+        <v>0.3054767171413236</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>0.01619866666666667</v>
-      </c>
-      <c r="H2">
-        <v>0.04859600000000001</v>
-      </c>
-      <c r="I2">
-        <v>0.5323897062851258</v>
-      </c>
-      <c r="J2">
-        <v>0.5323897062851259</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.2365093333333333</v>
+        <v>0.4581623333333333</v>
       </c>
       <c r="N2">
-        <v>0.7095279999999999</v>
+        <v>1.374487</v>
       </c>
       <c r="O2">
-        <v>0.006013533229697845</v>
+        <v>0.1060599910922654</v>
       </c>
       <c r="P2">
-        <v>0.006013533229697844</v>
+        <v>0.1060599910922654</v>
       </c>
       <c r="Q2">
-        <v>0.003831135854222223</v>
+        <v>0.02294675502344445</v>
       </c>
       <c r="R2">
-        <v>0.034480222688</v>
+        <v>0.206520795211</v>
       </c>
       <c r="S2">
-        <v>0.00320154318989468</v>
+        <v>0.03239885789890327</v>
       </c>
       <c r="T2">
-        <v>0.00320154318989468</v>
+        <v>0.03239885789890327</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +593,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01619866666666667</v>
+        <v>0.05008433333333333</v>
       </c>
       <c r="H3">
-        <v>0.04859600000000001</v>
+        <v>0.150253</v>
       </c>
       <c r="I3">
-        <v>0.5323897062851258</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="J3">
-        <v>0.5323897062851259</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.07510100000000001</v>
+        <v>0.075101</v>
       </c>
       <c r="N3">
         <v>0.225303</v>
       </c>
       <c r="O3">
-        <v>0.001909532925058086</v>
+        <v>0.01738512926863672</v>
       </c>
       <c r="P3">
-        <v>0.001909532925058086</v>
+        <v>0.01738512926863672</v>
       </c>
       <c r="Q3">
-        <v>0.001216536065333334</v>
+        <v>0.003761383517666667</v>
       </c>
       <c r="R3">
-        <v>0.010948824588</v>
+        <v>0.033852451659</v>
       </c>
       <c r="S3">
-        <v>0.001016615673113452</v>
+        <v>0.005310752216060684</v>
       </c>
       <c r="T3">
-        <v>0.001016615673113452</v>
+        <v>0.005310752216060686</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +652,60 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.01619866666666667</v>
+        <v>0.05008433333333333</v>
       </c>
       <c r="H4">
-        <v>0.04859600000000001</v>
+        <v>0.150253</v>
       </c>
       <c r="I4">
-        <v>0.5323897062851258</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="J4">
-        <v>0.5323897062851259</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.006358</v>
+        <v>3.786578</v>
       </c>
       <c r="N4">
-        <v>0.019074</v>
+        <v>11.359734</v>
       </c>
       <c r="O4">
-        <v>0.0001616597693442073</v>
+        <v>0.8765548796390978</v>
       </c>
       <c r="P4">
-        <v>0.0001616597693442073</v>
+        <v>0.8765548796390978</v>
       </c>
       <c r="Q4">
-        <v>0.0001029911226666667</v>
+        <v>0.1896482347446667</v>
       </c>
       <c r="R4">
-        <v>0.0009269201040000001</v>
+        <v>1.706834112702</v>
       </c>
       <c r="S4">
-        <v>8.60659971192837E-05</v>
+        <v>0.2677671070263597</v>
       </c>
       <c r="T4">
-        <v>8.606599711928372E-05</v>
+        <v>0.2677671070263597</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -717,7 +714,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,51 +723,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.01619866666666667</v>
+        <v>0.1138703333333333</v>
       </c>
       <c r="H5">
-        <v>0.04859600000000001</v>
+        <v>0.341611</v>
       </c>
       <c r="I5">
-        <v>0.5323897062851258</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="J5">
-        <v>0.5323897062851259</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>38.91081433333333</v>
+        <v>0.4581623333333333</v>
       </c>
       <c r="N5">
-        <v>116.732443</v>
+        <v>1.374487</v>
       </c>
       <c r="O5">
-        <v>0.9893540846369833</v>
+        <v>0.1060599910922654</v>
       </c>
       <c r="P5">
-        <v>0.9893540846369833</v>
+        <v>0.1060599910922654</v>
       </c>
       <c r="Q5">
-        <v>0.6303033111142222</v>
+        <v>0.05217109761744445</v>
       </c>
       <c r="R5">
-        <v>5.672729800028001</v>
+        <v>0.469539878557</v>
       </c>
       <c r="S5">
-        <v>0.526721930531873</v>
+        <v>0.07366113319336215</v>
       </c>
       <c r="T5">
-        <v>0.5267219305318731</v>
+        <v>0.07366113319336215</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -779,7 +776,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,46 +785,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.01619866666666667</v>
+        <v>0.1138703333333333</v>
       </c>
       <c r="H6">
-        <v>0.04859600000000001</v>
+        <v>0.341611</v>
       </c>
       <c r="I6">
-        <v>0.5323897062851258</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="J6">
-        <v>0.5323897062851259</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1007303333333333</v>
+        <v>0.075101</v>
       </c>
       <c r="N6">
-        <v>0.302191</v>
+        <v>0.225303</v>
       </c>
       <c r="O6">
-        <v>0.002561189438916605</v>
+        <v>0.01738512926863672</v>
       </c>
       <c r="P6">
-        <v>0.002561189438916605</v>
+        <v>0.01738512926863672</v>
       </c>
       <c r="Q6">
-        <v>0.001631697092888889</v>
+        <v>0.008551775903666667</v>
       </c>
       <c r="R6">
-        <v>0.014685273836</v>
+        <v>0.076965983133</v>
       </c>
       <c r="S6">
-        <v>0.001363550893125378</v>
+        <v>0.01207437705257603</v>
       </c>
       <c r="T6">
-        <v>0.001363550893125378</v>
+        <v>0.01207437705257603</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,303 +838,55 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.1138703333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.341611</v>
+      </c>
+      <c r="I7">
+        <v>0.6945232828586764</v>
+      </c>
+      <c r="J7">
+        <v>0.6945232828586764</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.01422766666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.042683</v>
-      </c>
-      <c r="I7">
-        <v>0.4676102937148741</v>
-      </c>
-      <c r="J7">
-        <v>0.4676102937148742</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M7">
-        <v>0.2365093333333333</v>
+        <v>3.786578</v>
       </c>
       <c r="N7">
-        <v>0.7095279999999999</v>
+        <v>11.359734</v>
       </c>
       <c r="O7">
-        <v>0.006013533229697845</v>
+        <v>0.8765548796390978</v>
       </c>
       <c r="P7">
-        <v>0.006013533229697844</v>
+        <v>0.8765548796390978</v>
       </c>
       <c r="Q7">
-        <v>0.003364975958222222</v>
+        <v>0.4311788990526667</v>
       </c>
       <c r="R7">
-        <v>0.030284783624</v>
+        <v>3.880610091474</v>
       </c>
       <c r="S7">
-        <v>0.002811990039803165</v>
+        <v>0.6087877726127382</v>
       </c>
       <c r="T7">
-        <v>0.002811990039803165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.01422766666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.042683</v>
-      </c>
-      <c r="I8">
-        <v>0.4676102937148741</v>
-      </c>
-      <c r="J8">
-        <v>0.4676102937148742</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.07510100000000001</v>
-      </c>
-      <c r="N8">
-        <v>0.225303</v>
-      </c>
-      <c r="O8">
-        <v>0.001909532925058086</v>
-      </c>
-      <c r="P8">
-        <v>0.001909532925058086</v>
-      </c>
-      <c r="Q8">
-        <v>0.001068511994333334</v>
-      </c>
-      <c r="R8">
-        <v>0.009616607949000001</v>
-      </c>
-      <c r="S8">
-        <v>0.0008929172519446344</v>
-      </c>
-      <c r="T8">
-        <v>0.0008929172519446343</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.01422766666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.042683</v>
-      </c>
-      <c r="I9">
-        <v>0.4676102937148741</v>
-      </c>
-      <c r="J9">
-        <v>0.4676102937148742</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.006358</v>
-      </c>
-      <c r="N9">
-        <v>0.019074</v>
-      </c>
-      <c r="O9">
-        <v>0.0001616597693442073</v>
-      </c>
-      <c r="P9">
-        <v>0.0001616597693442073</v>
-      </c>
-      <c r="Q9">
-        <v>9.045950466666666E-05</v>
-      </c>
-      <c r="R9">
-        <v>0.000814135542</v>
-      </c>
-      <c r="S9">
-        <v>7.559377222492357E-05</v>
-      </c>
-      <c r="T9">
-        <v>7.559377222492357E-05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.01422766666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.042683</v>
-      </c>
-      <c r="I10">
-        <v>0.4676102937148741</v>
-      </c>
-      <c r="J10">
-        <v>0.4676102937148742</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>38.91081433333333</v>
-      </c>
-      <c r="N10">
-        <v>116.732443</v>
-      </c>
-      <c r="O10">
-        <v>0.9893540846369833</v>
-      </c>
-      <c r="P10">
-        <v>0.9893540846369833</v>
-      </c>
-      <c r="Q10">
-        <v>0.5536100960632221</v>
-      </c>
-      <c r="R10">
-        <v>4.982490864569</v>
-      </c>
-      <c r="S10">
-        <v>0.4626321541051102</v>
-      </c>
-      <c r="T10">
-        <v>0.4626321541051102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.01422766666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.042683</v>
-      </c>
-      <c r="I11">
-        <v>0.4676102937148741</v>
-      </c>
-      <c r="J11">
-        <v>0.4676102937148742</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>0.1007303333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.302191</v>
-      </c>
-      <c r="O11">
-        <v>0.002561189438916605</v>
-      </c>
-      <c r="P11">
-        <v>0.002561189438916605</v>
-      </c>
-      <c r="Q11">
-        <v>0.001433157605888889</v>
-      </c>
-      <c r="R11">
-        <v>0.012898418453</v>
-      </c>
-      <c r="S11">
-        <v>0.001197638545791228</v>
-      </c>
-      <c r="T11">
-        <v>0.001197638545791228</v>
+        <v>0.6087877726127382</v>
       </c>
     </row>
   </sheetData>
